--- a/docs/assets/disciplinas/LOQ4083.xlsx
+++ b/docs/assets/disciplinas/LOQ4083.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EA-4,EB-3,EQD-3,EQN-4</t>
+    <t>EA-4,EB-5,EQD-4,EQN-5</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -156,7 +156,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1004 -  Cálculo II  (Requisito fraco)
+    <t xml:space="preserve">LOB1024 -  Mecânica  (Requisito fraco)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOB1052 -  Cálculo III  (Requisito fraco)
 </t>
   </si>
 </sst>
@@ -513,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -758,6 +762,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOQ4083.xlsx
+++ b/docs/assets/disciplinas/LOQ4083.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Dar ao futuro engenheiro os conceitos fundamentais relacionados ao escoamento de fluidos e desenvolver as equações de conservação de massa, energia e quantidade de movimento. Os conceitos e modelos matemáticos estudados servem de base para a compreensão dos processos produtivos que envolvam a transferência de fluidos e para as disciplinas de Operações Unitárias que estudam os princípios destas operações.</t>
+    <t>5816812 - João Paulo Alves Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,19 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5816812 - João Paulo Alves Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1) Bases conceituais para o estudo dos Fenômenos de transporte 
-2) Propriedades gerais dos fluidos 
-3) Cinemática dos fluidos:. 
-4) Equações de Conservação na forma Integral: 
-5) Equações Diferenciais do Escoamento de Fluidos: 
-6) Teoria da Camada Limite: 
-7) Escoamento em tubos:</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -106,16 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Bases conceituais para o estudo dos Fenômenos de transporte 
-Fluidos e a hipótese do contínuo. Importância da análise dimensional e uso dos números adimensionais. Leis básicas para transferência de massa, calor e quantidade de movimento. Lei geral para os fenômenos de transporte. Difusividade molecular, condutividade térmica e viscosidade. Transporte simultâneo de massa, calor e quantidade de movimento. Formulação integral e diferencial. 
-2) Propriedades gerais dos fluidos: Massa específica, peso específico, volume específico. Tensão e Pressão. Fluidos Newtonianos e não Newtonianos. Viscosidade. Tensão superficial e Capilaridade. Módulo de elasticidade volumétrica e compressibilidade. 
-3) Cinemática dos fluidos: Descrição de um Fluido em Movimento: Método de Euler e Lagrange - Campo de escoamento de um fluido - Escoamento permanente e transiente - Trajetórias e Linhas de corrente - Sistema e volume de controle - Escoamentos unidimensionais e bidimensionais. Escoamento uniforme. Escoamento laminar e turbulento: N° de Reynolds. 
-4) Equações de Conservação na forma Integral: Fluxo de uma grandeza. Conservação da Massa, continuidade. Formas específicas para a expressão integral. Conservação da quantidade de movimento linear. Conservação da Energia. Equação de Bernoulli. Aplicações 
-5) Equações Diferenciais do Escoamento de Fluidos: Equação da conservação da massa e continuidade. Equação da energia. Equação de Navier-Stokes. Aplicações 
-6) Teoria da Camada Limite: Definição de camada limite . Camada limite laminar e turbulenta. Camada limite sobre uma placa plana. Aplicações 
-7) Escoamento em tubos: Escoamento Laminar e turbulento. Coeficiente de atrito. Região turbulenta e de transição. Diagramas de Moody e Von Karman . Equação da energia com equipamentos de transporte. Perda de carga em acidentes. Diâmetro equivalente.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -128,29 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aplicação de 2 provas, P1 e P2.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média do período será MP = (P1+2P2)/3. Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham freqüência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou freqüência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham freqüência mínima de 70% serão submetidos ao período de recuperação (regimental)</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) YONG, D. F.; OKIISHI, T. H.; MUNSON, B.R. Fundamentos da mecânica dos fluidos. São Paulo: Edgard Blucher 
-2) BRUNETTI, F. Mecânica dos fluídos. São Paulo: Pearson Education. 
-3) FOX, Robert W. Introdução à mecânica dos fluídos. Rio de Janeiro: LTC. 
-4) WHITE, Frank M. Mecânica dos fluídos. Rio de Janeiro: Mcgraw-hill Interamericana. 
-5) COULSON, J. M.; RICHARDSON, J.F. Chemical engineering . Oxford: Butterworth Heinemann. Volume 1: Fluid Flow, Heat Transfer and Mass Transfer</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -517,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,34 +622,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -689,85 +666,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4083.xlsx
+++ b/docs/assets/disciplinas/LOQ4083.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,31 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Dar ao futuro engenheiro os conceitos fundamentais relacionados ao escoamento de fluidos e desenvolver as equações de conservação de massa, energia e quantidade de movimento. Os conceitos e modelos matemáticos estudados servem de base para a compreensão dos processos produtivos que envolvam a transferência de fluidos e para as disciplinas de Operações Unitárias que estudam os princípios destas operações.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide the future engineer the fundamental concepts related to fluid flow and develop the mass conservation, energy and momentum equations. Studied concepts and mathematical models provide the basis for understanding the processes that involve the fluids transfer and to the disciplines that investigate the principle of this operation as Unit Operations.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5816812 - João Paulo Alves Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide the future engineer the fundamental concepts related to fluid flow and develop the mass conservation, energy and momentum equations. Studied concepts and mathematical models provide the basis for understanding the processes that involve the fluids transfer and to the disciplines that investigate the principle of this operation as Unit Operations.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1) Bases conceituais para o estudo dos Fenômenos de transporte 
+2) Propriedades gerais dos fluidos 
+3) Cinemática dos fluidos:. 
+4) Equações de Conservação na forma Integral: 
+5) Equações Diferenciais do Escoamento de Fluidos: 
+6) Teoria da Camada Limite: 
+7) Escoamento em tubos:</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +106,16 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Bases conceituais para o estudo dos Fenômenos de transporte 
+Fluidos e a hipótese do contínuo. Importância da análise dimensional e uso dos números adimensionais. Leis básicas para transferência de massa, calor e quantidade de movimento. Lei geral para os fenômenos de transporte. Difusividade molecular, condutividade térmica e viscosidade. Transporte simultâneo de massa, calor e quantidade de movimento. Formulação integral e diferencial. 
+2) Propriedades gerais dos fluidos: Massa específica, peso específico, volume específico. Tensão e Pressão. Fluidos Newtonianos e não Newtonianos. Viscosidade. Tensão superficial e Capilaridade. Módulo de elasticidade volumétrica e compressibilidade. 
+3) Cinemática dos fluidos: Descrição de um Fluido em Movimento: Método de Euler e Lagrange - Campo de escoamento de um fluido - Escoamento permanente e transiente - Trajetórias e Linhas de corrente - Sistema e volume de controle - Escoamentos unidimensionais e bidimensionais. Escoamento uniforme. Escoamento laminar e turbulento: N° de Reynolds. 
+4) Equações de Conservação na forma Integral: Fluxo de uma grandeza. Conservação da Massa, continuidade. Formas específicas para a expressão integral. Conservação da quantidade de movimento linear. Conservação da Energia. Equação de Bernoulli. Aplicações 
+5) Equações Diferenciais do Escoamento de Fluidos: Equação da conservação da massa e continuidade. Equação da energia. Equação de Navier-Stokes. Aplicações 
+6) Teoria da Camada Limite: Definição de camada limite . Camada limite laminar e turbulenta. Camada limite sobre uma placa plana. Aplicações 
+7) Escoamento em tubos: Escoamento Laminar e turbulento. Coeficiente de atrito. Região turbulenta e de transição. Diagramas de Moody e Von Karman . Equação da energia com equipamentos de transporte. Perda de carga em acidentes. Diâmetro equivalente.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +128,29 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aplicação de 2 provas, P1 e P2.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aplicação de 2 provas, P1 e P2.</t>
+    <t>A média do período será MP = (P1+2P2)/3. Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham freqüência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou freqüência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham freqüência mínima de 70% serão submetidos ao período de recuperação (regimental)</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A média do período será MP = (P1+2P2)/3. Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham freqüência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou freqüência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham freqüência mínima de 70% serão submetidos ao período de recuperação (regimental)</t>
+    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
+    <t>1) YONG, D. F.; OKIISHI, T. H.; MUNSON, B.R. Fundamentos da mecânica dos fluidos. São Paulo: Edgard Blucher 
+2) BRUNETTI, F. Mecânica dos fluídos. São Paulo: Pearson Education. 
+3) FOX, Robert W. Introdução à mecânica dos fluídos. Rio de Janeiro: LTC. 
+4) WHITE, Frank M. Mecânica dos fluídos. Rio de Janeiro: Mcgraw-hill Interamericana. 
+5) COULSON, J. M.; RICHARDSON, J.F. Chemical engineering . Oxford: Butterworth Heinemann. Volume 1: Fluid Flow, Heat Transfer and Mass Transfer</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -622,37 +648,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -666,74 +689,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
